--- a/media/utils/tmplexcel/import_sample.xlsx
+++ b/media/utils/tmplexcel/import_sample.xlsx
@@ -731,7 +731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,7 +1305,7 @@
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/media/utils/tmplexcel/import_sample.xlsx
+++ b/media/utils/tmplexcel/import_sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="212">
   <si>
     <t>No.</t>
   </si>
@@ -644,6 +644,12 @@
   </si>
   <si>
     <t>Marketing</t>
+  </si>
+  <si>
+    <t>x - du ma may</t>
+  </si>
+  <si>
+    <t>Dai gia nhu cac</t>
   </si>
 </sst>
 </file>
@@ -736,7 +742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -745,7 +751,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF0070C0"/>
       </left>
       <right style="thin">
@@ -763,46 +769,9 @@
         <color rgb="FF0070C0"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF0070C0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -874,6 +843,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -884,57 +873,51 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1"/>
@@ -942,23 +925,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1304,1835 +1290,1839 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K70" sqref="A1:K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="22" customWidth="1"/>
-    <col min="4" max="8" width="25" style="23" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="23" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="22" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="11.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="20" customWidth="1"/>
+    <col min="4" max="8" width="25" style="21" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="21" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="20" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A2" s="26" t="s">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A1" s="28"/>
+      <c r="B1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1">
-      <c r="A4" s="7">
+    <row r="4" spans="1:11" s="5" customFormat="1">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <v>39282</v>
       </c>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" s="6" customFormat="1">
-      <c r="A5" s="7">
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" s="5" customFormat="1">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="10" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <v>39237</v>
       </c>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" s="6" customFormat="1">
-      <c r="A6" s="7">
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" s="5" customFormat="1">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="10" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="9">
         <v>39602</v>
       </c>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" s="6" customFormat="1">
-      <c r="A7" s="7">
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" s="5" customFormat="1">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>4</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="10" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="9">
         <v>40046</v>
       </c>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" s="6" customFormat="1">
-      <c r="A8" s="7">
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" s="5" customFormat="1">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="10" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <v>43791</v>
       </c>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" s="6" customFormat="1">
-      <c r="A9" s="7">
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" s="5" customFormat="1">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>6</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="10" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" s="6" customFormat="1">
-      <c r="A10" s="7">
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" s="5" customFormat="1">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>7</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="10" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="9">
         <v>40945</v>
       </c>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" s="6" customFormat="1">
-      <c r="A11" s="7">
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" s="5" customFormat="1">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>8</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="10" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="9">
         <v>40946</v>
       </c>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" s="6" customFormat="1">
-      <c r="A12" s="7">
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" s="5" customFormat="1">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="10" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="9">
         <v>40946</v>
       </c>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" s="6" customFormat="1">
-      <c r="A13" s="7">
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" s="5" customFormat="1">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>10</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="10" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" s="6" customFormat="1">
-      <c r="A14" s="7">
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" s="5" customFormat="1">
+      <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>11</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="10" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="9">
         <v>41156</v>
       </c>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" s="6" customFormat="1">
-      <c r="A15" s="7">
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" s="5" customFormat="1">
+      <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>12</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="10" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="9">
         <v>41169</v>
       </c>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" s="6" customFormat="1">
-      <c r="A16" s="7">
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" s="5" customFormat="1">
+      <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <v>13</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="10" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" s="6" customFormat="1">
-      <c r="A17" s="7">
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" s="5" customFormat="1">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <v>14</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="10" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" s="6" customFormat="1">
-      <c r="A18" s="7">
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" s="5" customFormat="1">
+      <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <v>15</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="10" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" s="6" customFormat="1">
-      <c r="A19" s="7">
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" s="5" customFormat="1">
+      <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <v>16</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="10" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" s="6" customFormat="1">
-      <c r="A20" s="7">
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" s="5" customFormat="1">
+      <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="6">
         <v>17</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="10" t="s">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" s="6" customFormat="1">
-      <c r="A21" s="7">
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" s="5" customFormat="1">
+      <c r="A21" s="6">
         <v>18</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="6">
         <v>18</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="10" t="s">
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" s="6" customFormat="1">
-      <c r="A22" s="7">
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" s="5" customFormat="1">
+      <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="6">
         <v>19</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="10" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" s="6" customFormat="1">
-      <c r="A23" s="7">
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" s="5" customFormat="1">
+      <c r="A23" s="6">
         <v>20</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="6">
         <v>20</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="10" t="s">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" s="6" customFormat="1">
-      <c r="A24" s="7">
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" s="5" customFormat="1">
+      <c r="A24" s="6">
         <v>21</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="6">
         <v>21</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="10" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" s="6" customFormat="1">
-      <c r="A25" s="7">
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" s="5" customFormat="1">
+      <c r="A25" s="6">
         <v>22</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="6">
         <v>22</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="10" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" s="6" customFormat="1">
-      <c r="A26" s="7">
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" s="5" customFormat="1">
+      <c r="A26" s="6">
         <v>23</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="6">
         <v>23</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="10" t="s">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="1:11" s="6" customFormat="1">
-      <c r="A27" s="7">
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" s="5" customFormat="1">
+      <c r="A27" s="6">
         <v>24</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="6">
         <v>24</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="10" t="s">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" s="6" customFormat="1">
-      <c r="A28" s="7">
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" s="5" customFormat="1">
+      <c r="A28" s="6">
         <v>25</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="6">
         <v>25</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="10" t="s">
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" s="6" customFormat="1">
-      <c r="A29" s="7">
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" s="5" customFormat="1">
+      <c r="A29" s="6">
         <v>26</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="6">
         <v>26</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="10" t="s">
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" s="6" customFormat="1">
-      <c r="A30" s="7">
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" s="5" customFormat="1">
+      <c r="A30" s="6">
         <v>27</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="6">
         <v>27</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="10" t="s">
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="1:11" s="6" customFormat="1">
-      <c r="A31" s="7">
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" s="5" customFormat="1">
+      <c r="A31" s="6">
         <v>28</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="6">
         <v>28</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="10" t="s">
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="1:11" s="6" customFormat="1">
-      <c r="A32" s="7">
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:11" s="5" customFormat="1">
+      <c r="A32" s="6">
         <v>29</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="6">
         <v>29</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="10" t="s">
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-    </row>
-    <row r="33" spans="1:11" s="6" customFormat="1">
-      <c r="A33" s="7">
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="1:11" s="5" customFormat="1">
+      <c r="A33" s="6">
         <v>30</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="6">
         <v>30</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="10" t="s">
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="9">
         <v>40074</v>
       </c>
-      <c r="K33" s="11"/>
-    </row>
-    <row r="34" spans="1:11" s="6" customFormat="1">
-      <c r="A34" s="7">
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" s="5" customFormat="1">
+      <c r="A34" s="6">
         <v>31</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="6">
         <v>31</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="10" t="s">
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="9">
         <v>39979</v>
       </c>
-      <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="1:11" s="6" customFormat="1">
-      <c r="A35" s="7">
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" s="5" customFormat="1">
+      <c r="A35" s="6">
         <v>32</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="6">
         <v>32</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="10" t="s">
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="9">
         <v>40483</v>
       </c>
-      <c r="K35" s="11"/>
-    </row>
-    <row r="36" spans="1:11" s="6" customFormat="1">
-      <c r="A36" s="7">
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" s="5" customFormat="1">
+      <c r="A36" s="6">
         <v>33</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="6">
         <v>33</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="10" t="s">
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="1:11" s="6" customFormat="1">
-      <c r="A37" s="7">
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="1:11" s="5" customFormat="1">
+      <c r="A37" s="6">
         <v>34</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="6">
         <v>34</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="10" t="s">
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-    </row>
-    <row r="38" spans="1:11" s="6" customFormat="1">
-      <c r="A38" s="7">
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="1:11" s="5" customFormat="1">
+      <c r="A38" s="6">
         <v>35</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="6">
         <v>35</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="10" t="s">
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="1:11" s="6" customFormat="1">
-      <c r="A39" s="7">
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="1:11" s="5" customFormat="1">
+      <c r="A39" s="6">
         <v>36</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="6">
         <v>36</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="10" t="s">
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-    </row>
-    <row r="40" spans="1:11" s="6" customFormat="1">
-      <c r="A40" s="7">
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" s="5" customFormat="1">
+      <c r="A40" s="6">
         <v>37</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="6">
         <v>37</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="10" t="s">
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-    </row>
-    <row r="41" spans="1:11" s="6" customFormat="1">
-      <c r="A41" s="7">
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:11" s="5" customFormat="1">
+      <c r="A41" s="6">
         <v>38</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="6">
         <v>38</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="10" t="s">
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="9">
         <v>39722</v>
       </c>
-      <c r="K41" s="11"/>
-    </row>
-    <row r="42" spans="1:11" s="6" customFormat="1">
-      <c r="A42" s="7">
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" s="5" customFormat="1">
+      <c r="A42" s="6">
         <v>39</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="6">
         <v>39</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="10" t="s">
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="1:11" s="6" customFormat="1">
-      <c r="A43" s="7">
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="1:11" s="5" customFormat="1">
+      <c r="A43" s="6">
         <v>40</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="6">
         <v>40</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="10" t="s">
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="9">
         <v>40437</v>
       </c>
-      <c r="K43" s="11"/>
-    </row>
-    <row r="44" spans="1:11" s="6" customFormat="1">
-      <c r="A44" s="7">
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="1:11" s="5" customFormat="1">
+      <c r="A44" s="6">
         <v>41</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="6">
         <v>41</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="10" t="s">
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="9">
         <v>40533</v>
       </c>
-      <c r="K44" s="11"/>
-    </row>
-    <row r="45" spans="1:11" s="6" customFormat="1">
-      <c r="A45" s="7">
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="1:11" s="5" customFormat="1">
+      <c r="A45" s="6">
         <v>42</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="6">
         <v>42</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="10" t="s">
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="9">
         <v>40680</v>
       </c>
-      <c r="K45" s="11"/>
-    </row>
-    <row r="46" spans="1:11" s="6" customFormat="1">
-      <c r="A46" s="7">
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="1:11" s="5" customFormat="1">
+      <c r="A46" s="6">
         <v>43</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="6">
         <v>43</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="10" t="s">
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="9">
         <v>40946</v>
       </c>
-      <c r="K46" s="11"/>
-    </row>
-    <row r="47" spans="1:11" s="6" customFormat="1">
-      <c r="A47" s="7">
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" s="5" customFormat="1">
+      <c r="A47" s="6">
         <v>44</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="6">
         <v>44</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="10" t="s">
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-    </row>
-    <row r="48" spans="1:11" s="6" customFormat="1">
-      <c r="A48" s="7">
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+    </row>
+    <row r="48" spans="1:11" s="5" customFormat="1">
+      <c r="A48" s="6">
         <v>45</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="6">
         <v>45</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="10" t="s">
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-    </row>
-    <row r="49" spans="1:11" s="6" customFormat="1">
-      <c r="A49" s="7">
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+    </row>
+    <row r="49" spans="1:11" s="5" customFormat="1">
+      <c r="A49" s="6">
         <v>46</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="6">
         <v>46</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="10" t="s">
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="9">
         <v>41169</v>
       </c>
-      <c r="K49" s="11"/>
-    </row>
-    <row r="50" spans="1:11" s="6" customFormat="1">
-      <c r="A50" s="7">
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="1:11" s="5" customFormat="1">
+      <c r="A50" s="6">
         <v>47</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="6">
         <v>47</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="10" t="s">
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="9">
         <v>41214</v>
       </c>
-      <c r="K50" s="11"/>
-    </row>
-    <row r="51" spans="1:11" s="6" customFormat="1">
-      <c r="A51" s="7">
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="1:11" s="5" customFormat="1">
+      <c r="A51" s="6">
         <v>48</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="6">
         <v>48</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="10" t="s">
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-    </row>
-    <row r="52" spans="1:11" s="6" customFormat="1">
-      <c r="A52" s="7">
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+    </row>
+    <row r="52" spans="1:11" s="5" customFormat="1">
+      <c r="A52" s="6">
         <v>49</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="6">
         <v>49</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="10" t="s">
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-    </row>
-    <row r="53" spans="1:11" s="6" customFormat="1">
-      <c r="A53" s="7">
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+    </row>
+    <row r="53" spans="1:11" s="5" customFormat="1">
+      <c r="A53" s="6">
         <v>50</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="6">
         <v>50</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="10" t="s">
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-    </row>
-    <row r="54" spans="1:11" s="6" customFormat="1">
-      <c r="A54" s="7">
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+    </row>
+    <row r="54" spans="1:11" s="5" customFormat="1">
+      <c r="A54" s="6">
         <v>51</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="6">
         <v>51</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="10" t="s">
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-    </row>
-    <row r="55" spans="1:11" s="6" customFormat="1">
-      <c r="A55" s="7">
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+    </row>
+    <row r="55" spans="1:11" s="5" customFormat="1">
+      <c r="A55" s="6">
         <v>52</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="6">
         <v>52</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="10" t="s">
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-    </row>
-    <row r="56" spans="1:11" s="6" customFormat="1">
-      <c r="A56" s="7">
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+    </row>
+    <row r="56" spans="1:11" s="5" customFormat="1">
+      <c r="A56" s="6">
         <v>53</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="6">
         <v>53</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="10" t="s">
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-    </row>
-    <row r="57" spans="1:11" s="6" customFormat="1">
-      <c r="A57" s="7">
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+    </row>
+    <row r="57" spans="1:11" s="5" customFormat="1">
+      <c r="A57" s="6">
         <v>54</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="6">
         <v>54</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="10" t="s">
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J57" s="9">
         <v>39083</v>
       </c>
-      <c r="K57" s="11"/>
-    </row>
-    <row r="58" spans="1:11" s="6" customFormat="1">
-      <c r="A58" s="7">
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58" spans="1:11" s="5" customFormat="1">
+      <c r="A58" s="6">
         <v>55</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="6">
         <v>55</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="10" t="s">
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-    </row>
-    <row r="59" spans="1:11" s="6" customFormat="1">
-      <c r="A59" s="7">
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+    </row>
+    <row r="59" spans="1:11" s="5" customFormat="1">
+      <c r="A59" s="6">
         <v>56</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="6">
         <v>56</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="10" t="s">
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J59" s="11">
+      <c r="J59" s="9">
         <v>39238</v>
       </c>
-      <c r="K59" s="11"/>
-    </row>
-    <row r="60" spans="1:11" s="6" customFormat="1">
-      <c r="A60" s="7">
+      <c r="K59" s="9"/>
+    </row>
+    <row r="60" spans="1:11" s="5" customFormat="1">
+      <c r="A60" s="6">
         <v>57</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="6">
         <v>57</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="10" t="s">
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J60" s="9">
         <v>39412</v>
       </c>
-      <c r="K60" s="11"/>
-    </row>
-    <row r="61" spans="1:11" s="6" customFormat="1">
-      <c r="A61" s="7">
+      <c r="K60" s="9"/>
+    </row>
+    <row r="61" spans="1:11" s="5" customFormat="1">
+      <c r="A61" s="6">
         <v>58</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="6">
         <v>58</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="10" t="s">
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-    </row>
-    <row r="62" spans="1:11" s="6" customFormat="1">
-      <c r="A62" s="7">
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+    </row>
+    <row r="62" spans="1:11" s="5" customFormat="1">
+      <c r="A62" s="6">
         <v>59</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="6">
         <v>59</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E62" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="18" t="s">
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-    </row>
-    <row r="63" spans="1:11" s="6" customFormat="1">
-      <c r="A63" s="7">
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+    </row>
+    <row r="63" spans="1:11" s="5" customFormat="1">
+      <c r="A63" s="6">
         <v>60</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="6">
         <v>60</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="14" t="s">
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J63" s="11">
+      <c r="J63" s="9">
         <v>43771</v>
       </c>
-      <c r="K63" s="11"/>
-    </row>
-    <row r="64" spans="1:11" s="6" customFormat="1">
-      <c r="A64" s="7">
+      <c r="K63" s="9"/>
+    </row>
+    <row r="64" spans="1:11" s="5" customFormat="1">
+      <c r="A64" s="6">
         <v>61</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="7">
         <v>61</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="10" t="s">
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-    </row>
-    <row r="65" spans="1:11" s="6" customFormat="1">
-      <c r="A65" s="7">
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+    </row>
+    <row r="65" spans="1:11" s="5" customFormat="1">
+      <c r="A65" s="6">
         <v>62</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="7">
         <v>62</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="10" t="s">
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="J65" s="21">
+      <c r="J65" s="19">
         <v>39238</v>
       </c>
-      <c r="K65" s="21"/>
-    </row>
-    <row r="66" spans="1:11" s="6" customFormat="1">
-      <c r="A66" s="7">
+      <c r="K65" s="19"/>
+    </row>
+    <row r="66" spans="1:11" s="5" customFormat="1">
+      <c r="A66" s="6">
         <v>63</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="7">
         <v>63</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="10" t="s">
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-    </row>
-    <row r="67" spans="1:11" s="6" customFormat="1">
-      <c r="A67" s="7">
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+    </row>
+    <row r="67" spans="1:11" s="5" customFormat="1">
+      <c r="A67" s="6">
         <v>64</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="7">
         <v>64</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="10" t="s">
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="J67" s="21">
+      <c r="J67" s="19">
         <v>39237</v>
       </c>
-      <c r="K67" s="21"/>
-    </row>
-    <row r="68" spans="1:11" s="6" customFormat="1">
-      <c r="A68" s="7">
+      <c r="K67" s="19"/>
+    </row>
+    <row r="68" spans="1:11" s="5" customFormat="1">
+      <c r="A68" s="6">
         <v>65</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="7">
         <v>65</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="10" t="s">
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="J68" s="21">
+      <c r="J68" s="19">
         <v>40000</v>
       </c>
-      <c r="K68" s="21"/>
-    </row>
-    <row r="69" spans="1:11" s="6" customFormat="1">
-      <c r="A69" s="7">
+      <c r="K68" s="19"/>
+    </row>
+    <row r="69" spans="1:11" s="5" customFormat="1">
+      <c r="A69" s="6">
         <v>66</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="7">
         <v>66</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="10" t="s">
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-    </row>
-    <row r="70" spans="1:11" s="6" customFormat="1">
-      <c r="A70" s="8">
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+    </row>
+    <row r="70" spans="1:11" s="5" customFormat="1">
+      <c r="A70" s="6">
         <v>67</v>
       </c>
-      <c r="B70" s="15">
+      <c r="B70" s="13">
         <v>63</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="18" t="s">
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="J70" s="25">
+      <c r="J70" s="23">
         <v>40422</v>
       </c>
-      <c r="K70" s="11"/>
+      <c r="K70" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:J70">

--- a/media/utils/tmplexcel/import_sample.xlsx
+++ b/media/utils/tmplexcel/import_sample.xlsx
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K70" sqref="A1:K70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
